--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EB8487C-65A0-5B4D-AE5B-9466FC68FB88}"/>
   <bookViews>
-    <workbookView xWindow="20800" yWindow="9300" windowWidth="36520" windowHeight="17700"/>
+    <workbookView xWindow="13780" yWindow="9260" windowWidth="36520" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics Competition 2023_Octo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Team Rui</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Carson Boettinger</t>
   </si>
   <si>
-    <t>Amirhossein</t>
-  </si>
-  <si>
     <t>Surviving Econ</t>
   </si>
   <si>
@@ -106,21 +103,12 @@
     <t>survivingecon</t>
   </si>
   <si>
-    <t>thedeadweightlosses</t>
-  </si>
-  <si>
-    <t>The Deadweight Losses</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
     <t>regressionroyals</t>
   </si>
   <si>
-    <t>Regression Royals</t>
-  </si>
-  <si>
     <t>thedreamteam</t>
   </si>
   <si>
@@ -133,19 +121,73 @@
     <t>Will Graf</t>
   </si>
   <si>
-    <t>amirhossein</t>
-  </si>
-  <si>
-    <t>billchen</t>
-  </si>
-  <si>
-    <t>Bill Chen</t>
+    <t>Data Dazzlers</t>
+  </si>
+  <si>
+    <t>datadazzlers</t>
+  </si>
+  <si>
+    <t>Growth Guardians</t>
+  </si>
+  <si>
+    <t>growthguardians</t>
+  </si>
+  <si>
+    <t>Policy Pioneers</t>
+  </si>
+  <si>
+    <t>policypioneers</t>
+  </si>
+  <si>
+    <t>Economic Explorers</t>
+  </si>
+  <si>
+    <t>economicexplorers</t>
+  </si>
+  <si>
+    <t>Market Movers</t>
+  </si>
+  <si>
+    <t>marketmovers</t>
+  </si>
+  <si>
+    <t>Market Maestro</t>
+  </si>
+  <si>
+    <t>marketmaestro</t>
+  </si>
+  <si>
+    <t>Financial Wizard</t>
+  </si>
+  <si>
+    <t>financialwizard</t>
+  </si>
+  <si>
+    <t>RegressionRoyals</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>dms</t>
+  </si>
+  <si>
+    <t>Econo Titans</t>
+  </si>
+  <si>
+    <t>econotitans</t>
+  </si>
+  <si>
+    <t>Economic Visionaries</t>
+  </si>
+  <si>
+    <t>economicvisionaries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -979,11 +1021,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,43 +1036,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1038,10 +1080,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1049,10 +1091,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1060,43 +1102,43 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
         <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1104,32 +1146,32 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1137,54 +1179,54 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1192,12 +1234,89 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
     </row>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EB8487C-65A0-5B4D-AE5B-9466FC68FB88}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F98F3EC-C7D0-444D-BB5F-BF591EF4B9DA}"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="9260" windowWidth="36520" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,12 +151,6 @@
     <t>marketmovers</t>
   </si>
   <si>
-    <t>Market Maestro</t>
-  </si>
-  <si>
-    <t>marketmaestro</t>
-  </si>
-  <si>
     <t>Financial Wizard</t>
   </si>
   <si>
@@ -182,6 +176,12 @@
   </si>
   <si>
     <t>economicvisionaries</t>
+  </si>
+  <si>
+    <t>thedeadweightlosses</t>
+  </si>
+  <si>
+    <t>The Deadweight Losses</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,65 +1201,65 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1267,23 +1267,23 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1294,8 +1294,8 @@
       <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s">
-        <v>1</v>
+      <c r="C24">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1306,18 +1306,18 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F98F3EC-C7D0-444D-BB5F-BF591EF4B9DA}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63E87E0E-747D-9E4A-96D5-917DD2AC491B}"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="9260" windowWidth="36520" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Team Rui</t>
   </si>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1151,7 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
         <v>1</v>
       </c>
     </row>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63E87E0E-747D-9E4A-96D5-917DD2AC491B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0F555FA-8861-A04D-8052-944B15D898DF}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="9260" windowWidth="36520" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23020" yWindow="9700" windowWidth="36520" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics Competition 2023_Octo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Team Rui</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>The Deadweight Losses</t>
+  </si>
+  <si>
+    <t>correlationcrusaders</t>
+  </si>
+  <si>
+    <t>Correlation Crusaders</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1320,6 +1326,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0F555FA-8861-A04D-8052-944B15D898DF}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14FC5D7A-F107-BE4D-9B17-75D03244B01C}"/>
   <bookViews>
-    <workbookView xWindow="23020" yWindow="9700" windowWidth="36520" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="31120" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics Competition 2023_Octo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Team Rui</t>
   </si>
@@ -188,6 +188,54 @@
   </si>
   <si>
     <t>Correlation Crusaders</t>
+  </si>
+  <si>
+    <t>Marginal Masters</t>
+  </si>
+  <si>
+    <t>marginalmasters</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>The Supply Side Squad</t>
+  </si>
+  <si>
+    <t>thesupplysidesquad</t>
+  </si>
+  <si>
+    <t>LXR</t>
+  </si>
+  <si>
+    <t>lxr</t>
+  </si>
+  <si>
+    <t>Stata Stallions</t>
+  </si>
+  <si>
+    <t>statastallions</t>
+  </si>
+  <si>
+    <t>Capital Crusaders</t>
+  </si>
+  <si>
+    <t>capitalcrusaders</t>
+  </si>
+  <si>
+    <t>Demand Dynasty</t>
+  </si>
+  <si>
+    <t>demanddynasty</t>
   </si>
 </sst>
 </file>
@@ -729,6 +777,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,13 +1080,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -1323,7 +1375,7 @@
         <v>53</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1335,6 +1387,94 @@
       </c>
       <c r="C27" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14FC5D7A-F107-BE4D-9B17-75D03244B01C}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A7896D-D54B-9E45-AC51-6E1E3095DDEA}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="31120" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17700" yWindow="1480" windowWidth="31120" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics Competition 2023_Octo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>Team Rui</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>demanddynasty</t>
+  </si>
+  <si>
+    <t>teamboh</t>
+  </si>
+  <si>
+    <t>Team Boh</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1477,6 +1483,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A7896D-D54B-9E45-AC51-6E1E3095DDEA}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EBE6A92-39BA-6B4A-A33D-403945BCBD28}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="1480" windowWidth="31120" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39040" yWindow="840" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics Competition 2023_Octo" sheetId="1" r:id="rId1"/>
@@ -20,46 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
-  <si>
-    <t>Team Rui</t>
-  </si>
-  <si>
-    <t>MABE</t>
-  </si>
-  <si>
-    <t>Lahore to Lagos</t>
-  </si>
-  <si>
-    <t>Forecasting Frontiers</t>
-  </si>
-  <si>
-    <t>Solvers of Canada's Economic Crisis</t>
-  </si>
-  <si>
-    <t>Edge Runner</t>
-  </si>
-  <si>
-    <t>EcoMasters</t>
-  </si>
-  <si>
-    <t>The Miracle Workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Makers </t>
-  </si>
-  <si>
-    <t>The Econ Bros</t>
-  </si>
-  <si>
-    <t>Slack Off</t>
-  </si>
-  <si>
-    <t>Carson Boettinger</t>
-  </si>
-  <si>
-    <t>Surviving Econ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>longname</t>
   </si>
@@ -67,181 +28,139 @@
     <t>shortname</t>
   </si>
   <si>
-    <t>teamrui</t>
-  </si>
-  <si>
-    <t>lahoretolagos</t>
-  </si>
-  <si>
-    <t>forecastingfrontiers</t>
-  </si>
-  <si>
-    <t>solversofcanadaseconomiccrisis</t>
-  </si>
-  <si>
-    <t>edgerunner</t>
-  </si>
-  <si>
-    <t>ecomasters</t>
-  </si>
-  <si>
-    <t>themiracleworkers</t>
-  </si>
-  <si>
-    <t>modelmakers</t>
-  </si>
-  <si>
-    <t>theeconbros</t>
-  </si>
-  <si>
-    <t>slackoff</t>
-  </si>
-  <si>
-    <t>carsonboettinger</t>
-  </si>
-  <si>
-    <t>survivingecon</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
-    <t>regressionroyals</t>
-  </si>
-  <si>
-    <t>thedreamteam</t>
-  </si>
-  <si>
-    <t>The Dream Team</t>
-  </si>
-  <si>
-    <t>willgraf</t>
-  </si>
-  <si>
-    <t>Will Graf</t>
-  </si>
-  <si>
-    <t>Data Dazzlers</t>
-  </si>
-  <si>
-    <t>datadazzlers</t>
-  </si>
-  <si>
-    <t>Growth Guardians</t>
-  </si>
-  <si>
-    <t>growthguardians</t>
-  </si>
-  <si>
-    <t>Policy Pioneers</t>
-  </si>
-  <si>
-    <t>policypioneers</t>
-  </si>
-  <si>
-    <t>Economic Explorers</t>
-  </si>
-  <si>
-    <t>economicexplorers</t>
-  </si>
-  <si>
-    <t>Market Movers</t>
-  </si>
-  <si>
-    <t>marketmovers</t>
-  </si>
-  <si>
-    <t>Financial Wizard</t>
-  </si>
-  <si>
-    <t>financialwizard</t>
-  </si>
-  <si>
-    <t>RegressionRoyals</t>
-  </si>
-  <si>
-    <t>DMS</t>
-  </si>
-  <si>
-    <t>dms</t>
-  </si>
-  <si>
-    <t>Econo Titans</t>
-  </si>
-  <si>
-    <t>econotitans</t>
-  </si>
-  <si>
-    <t>Economic Visionaries</t>
-  </si>
-  <si>
-    <t>economicvisionaries</t>
-  </si>
-  <si>
-    <t>thedeadweightlosses</t>
-  </si>
-  <si>
-    <t>The Deadweight Losses</t>
-  </si>
-  <si>
-    <t>correlationcrusaders</t>
-  </si>
-  <si>
-    <t>Correlation Crusaders</t>
-  </si>
-  <si>
-    <t>Marginal Masters</t>
-  </si>
-  <si>
-    <t>marginalmasters</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>Dream</t>
-  </si>
-  <si>
-    <t>dream</t>
-  </si>
-  <si>
-    <t>The Supply Side Squad</t>
-  </si>
-  <si>
-    <t>thesupplysidesquad</t>
-  </si>
-  <si>
-    <t>LXR</t>
-  </si>
-  <si>
-    <t>lxr</t>
-  </si>
-  <si>
-    <t>Stata Stallions</t>
-  </si>
-  <si>
-    <t>statastallions</t>
-  </si>
-  <si>
-    <t>Capital Crusaders</t>
-  </si>
-  <si>
-    <t>capitalcrusaders</t>
-  </si>
-  <si>
-    <t>Demand Dynasty</t>
-  </si>
-  <si>
-    <t>demanddynasty</t>
-  </si>
-  <si>
-    <t>teamboh</t>
-  </si>
-  <si>
-    <t>Team Boh</t>
+    <t>Confidence Intervals</t>
+  </si>
+  <si>
+    <t>confidenceintervals</t>
+  </si>
+  <si>
+    <t>Pareto Optimalists</t>
+  </si>
+  <si>
+    <t>paretooptimalists</t>
+  </si>
+  <si>
+    <t>GoodLogic</t>
+  </si>
+  <si>
+    <t>goodlogic</t>
+  </si>
+  <si>
+    <t>Supply and Demanders</t>
+  </si>
+  <si>
+    <t>supplyanddemanders</t>
+  </si>
+  <si>
+    <t>The Excel-erator</t>
+  </si>
+  <si>
+    <t>theexcelerator</t>
+  </si>
+  <si>
+    <t>Keynes Crusaders</t>
+  </si>
+  <si>
+    <t>keynescrusaders</t>
+  </si>
+  <si>
+    <t>Utility Maximizers</t>
+  </si>
+  <si>
+    <t>utilitymaximizers</t>
+  </si>
+  <si>
+    <t>Economads</t>
+  </si>
+  <si>
+    <t>economads</t>
+  </si>
+  <si>
+    <t>The Equilibrium Enforcers</t>
+  </si>
+  <si>
+    <t>theequilibriumenforcers</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>Fiscal Falcons</t>
+  </si>
+  <si>
+    <t>fiscalfalcons</t>
+  </si>
+  <si>
+    <t>The Invisible Hands</t>
+  </si>
+  <si>
+    <t>theinvisiblehands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Rejected Nulls </t>
+  </si>
+  <si>
+    <t>therejectednulls</t>
+  </si>
+  <si>
+    <t>The Data Hunters</t>
+  </si>
+  <si>
+    <t>thedatahunters</t>
+  </si>
+  <si>
+    <t>The Tarrifc 25%</t>
+  </si>
+  <si>
+    <t>thetarrifc25</t>
+  </si>
+  <si>
+    <t>Wage Against The Machine</t>
+  </si>
+  <si>
+    <t>wageagainstthemachine</t>
+  </si>
+  <si>
+    <t>The Wage Wizards</t>
+  </si>
+  <si>
+    <t>thewagewizards</t>
+  </si>
+  <si>
+    <t>Scarcity Squad</t>
+  </si>
+  <si>
+    <t>scarcitysquad</t>
+  </si>
+  <si>
+    <t>Tradeoff Titans</t>
+  </si>
+  <si>
+    <t>tradeofftitans</t>
+  </si>
+  <si>
+    <t>Marginal Revolutionaries</t>
+  </si>
+  <si>
+    <t>marginalrevolutionaries</t>
+  </si>
+  <si>
+    <t>Pareto Improvements</t>
+  </si>
+  <si>
+    <t>paretoimprovements</t>
+  </si>
+  <si>
+    <t>Recession Obsession</t>
+  </si>
+  <si>
+    <t>recessionobsession</t>
   </si>
 </sst>
 </file>
@@ -725,8 +644,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -790,9 +715,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -830,7 +755,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -936,7 +861,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1078,7 +1003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1086,413 +1011,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
+      <c r="C22">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32">
+      <c r="C23">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:40009_{8EAB39CF-A85C-0141-98F0-4CD2F196A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EBE6A92-39BA-6B4A-A33D-403945BCBD28}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39040" yWindow="840" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="4080" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics Competition 2023_Octo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+  <si>
+    <t>Team Rui</t>
+  </si>
+  <si>
+    <t>MABE</t>
+  </si>
+  <si>
+    <t>Lahore to Lagos</t>
+  </si>
+  <si>
+    <t>Forecasting Frontiers</t>
+  </si>
+  <si>
+    <t>Solvers of Canada's Economic Crisis</t>
+  </si>
+  <si>
+    <t>Edge Runner</t>
+  </si>
+  <si>
+    <t>EcoMasters</t>
+  </si>
+  <si>
+    <t>The Miracle Workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Makers </t>
+  </si>
+  <si>
+    <t>The Econ Bros</t>
+  </si>
+  <si>
+    <t>Slack Off</t>
+  </si>
+  <si>
+    <t>Carson Boettinger</t>
+  </si>
+  <si>
+    <t>Surviving Econ</t>
+  </si>
   <si>
     <t>longname</t>
   </si>
@@ -28,139 +67,181 @@
     <t>shortname</t>
   </si>
   <si>
+    <t>teamrui</t>
+  </si>
+  <si>
+    <t>lahoretolagos</t>
+  </si>
+  <si>
+    <t>forecastingfrontiers</t>
+  </si>
+  <si>
+    <t>solversofcanadaseconomiccrisis</t>
+  </si>
+  <si>
+    <t>edgerunner</t>
+  </si>
+  <si>
+    <t>ecomasters</t>
+  </si>
+  <si>
+    <t>themiracleworkers</t>
+  </si>
+  <si>
+    <t>modelmakers</t>
+  </si>
+  <si>
+    <t>theeconbros</t>
+  </si>
+  <si>
+    <t>slackoff</t>
+  </si>
+  <si>
+    <t>carsonboettinger</t>
+  </si>
+  <si>
+    <t>survivingecon</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
-    <t>Confidence Intervals</t>
-  </si>
-  <si>
-    <t>confidenceintervals</t>
-  </si>
-  <si>
-    <t>Pareto Optimalists</t>
-  </si>
-  <si>
-    <t>paretooptimalists</t>
-  </si>
-  <si>
-    <t>GoodLogic</t>
-  </si>
-  <si>
-    <t>goodlogic</t>
-  </si>
-  <si>
-    <t>Supply and Demanders</t>
-  </si>
-  <si>
-    <t>supplyanddemanders</t>
-  </si>
-  <si>
-    <t>The Excel-erator</t>
-  </si>
-  <si>
-    <t>theexcelerator</t>
-  </si>
-  <si>
-    <t>Keynes Crusaders</t>
-  </si>
-  <si>
-    <t>keynescrusaders</t>
-  </si>
-  <si>
-    <t>Utility Maximizers</t>
-  </si>
-  <si>
-    <t>utilitymaximizers</t>
-  </si>
-  <si>
-    <t>Economads</t>
-  </si>
-  <si>
-    <t>economads</t>
-  </si>
-  <si>
-    <t>The Equilibrium Enforcers</t>
-  </si>
-  <si>
-    <t>theequilibriumenforcers</t>
-  </si>
-  <si>
-    <t>Prime</t>
-  </si>
-  <si>
-    <t>prime</t>
-  </si>
-  <si>
-    <t>Fiscal Falcons</t>
-  </si>
-  <si>
-    <t>fiscalfalcons</t>
-  </si>
-  <si>
-    <t>The Invisible Hands</t>
-  </si>
-  <si>
-    <t>theinvisiblehands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Rejected Nulls </t>
-  </si>
-  <si>
-    <t>therejectednulls</t>
-  </si>
-  <si>
-    <t>The Data Hunters</t>
-  </si>
-  <si>
-    <t>thedatahunters</t>
-  </si>
-  <si>
-    <t>The Tarrifc 25%</t>
-  </si>
-  <si>
-    <t>thetarrifc25</t>
-  </si>
-  <si>
-    <t>Wage Against The Machine</t>
-  </si>
-  <si>
-    <t>wageagainstthemachine</t>
-  </si>
-  <si>
-    <t>The Wage Wizards</t>
-  </si>
-  <si>
-    <t>thewagewizards</t>
-  </si>
-  <si>
-    <t>Scarcity Squad</t>
-  </si>
-  <si>
-    <t>scarcitysquad</t>
-  </si>
-  <si>
-    <t>Tradeoff Titans</t>
-  </si>
-  <si>
-    <t>tradeofftitans</t>
-  </si>
-  <si>
-    <t>Marginal Revolutionaries</t>
-  </si>
-  <si>
-    <t>marginalrevolutionaries</t>
-  </si>
-  <si>
-    <t>Pareto Improvements</t>
-  </si>
-  <si>
-    <t>paretoimprovements</t>
-  </si>
-  <si>
-    <t>Recession Obsession</t>
-  </si>
-  <si>
-    <t>recessionobsession</t>
+    <t>regressionroyals</t>
+  </si>
+  <si>
+    <t>thedreamteam</t>
+  </si>
+  <si>
+    <t>The Dream Team</t>
+  </si>
+  <si>
+    <t>willgraf</t>
+  </si>
+  <si>
+    <t>Will Graf</t>
+  </si>
+  <si>
+    <t>Data Dazzlers</t>
+  </si>
+  <si>
+    <t>datadazzlers</t>
+  </si>
+  <si>
+    <t>Growth Guardians</t>
+  </si>
+  <si>
+    <t>growthguardians</t>
+  </si>
+  <si>
+    <t>Policy Pioneers</t>
+  </si>
+  <si>
+    <t>policypioneers</t>
+  </si>
+  <si>
+    <t>Economic Explorers</t>
+  </si>
+  <si>
+    <t>economicexplorers</t>
+  </si>
+  <si>
+    <t>Market Movers</t>
+  </si>
+  <si>
+    <t>marketmovers</t>
+  </si>
+  <si>
+    <t>Financial Wizard</t>
+  </si>
+  <si>
+    <t>financialwizard</t>
+  </si>
+  <si>
+    <t>RegressionRoyals</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>dms</t>
+  </si>
+  <si>
+    <t>Econo Titans</t>
+  </si>
+  <si>
+    <t>econotitans</t>
+  </si>
+  <si>
+    <t>Economic Visionaries</t>
+  </si>
+  <si>
+    <t>economicvisionaries</t>
+  </si>
+  <si>
+    <t>thedeadweightlosses</t>
+  </si>
+  <si>
+    <t>The Deadweight Losses</t>
+  </si>
+  <si>
+    <t>correlationcrusaders</t>
+  </si>
+  <si>
+    <t>Correlation Crusaders</t>
+  </si>
+  <si>
+    <t>Marginal Masters</t>
+  </si>
+  <si>
+    <t>marginalmasters</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>The Supply Side Squad</t>
+  </si>
+  <si>
+    <t>thesupplysidesquad</t>
+  </si>
+  <si>
+    <t>LXR</t>
+  </si>
+  <si>
+    <t>lxr</t>
+  </si>
+  <si>
+    <t>Stata Stallions</t>
+  </si>
+  <si>
+    <t>statastallions</t>
+  </si>
+  <si>
+    <t>Capital Crusaders</t>
+  </si>
+  <si>
+    <t>capitalcrusaders</t>
+  </si>
+  <si>
+    <t>Demand Dynasty</t>
+  </si>
+  <si>
+    <t>demanddynasty</t>
+  </si>
+  <si>
+    <t>teamboh</t>
+  </si>
+  <si>
+    <t>Team Boh</t>
   </si>
 </sst>
 </file>
@@ -644,14 +725,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -708,10 +783,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,316 +1082,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I32"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
+      <c r="B14" t="s">
+        <v>8</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
         <v>2</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F0F7E5F-EF90-DB4D-BC37-F53E1BBE835A}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="4080" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,46 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
-  <si>
-    <t>Team Rui</t>
-  </si>
-  <si>
-    <t>MABE</t>
-  </si>
-  <si>
-    <t>Lahore to Lagos</t>
-  </si>
-  <si>
-    <t>Forecasting Frontiers</t>
-  </si>
-  <si>
-    <t>Solvers of Canada's Economic Crisis</t>
-  </si>
-  <si>
-    <t>Edge Runner</t>
-  </si>
-  <si>
-    <t>EcoMasters</t>
-  </si>
-  <si>
-    <t>The Miracle Workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Makers </t>
-  </si>
-  <si>
-    <t>The Econ Bros</t>
-  </si>
-  <si>
-    <t>Slack Off</t>
-  </si>
-  <si>
-    <t>Carson Boettinger</t>
-  </si>
-  <si>
-    <t>Surviving Econ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>longname</t>
   </si>
@@ -67,181 +28,139 @@
     <t>shortname</t>
   </si>
   <si>
-    <t>teamrui</t>
-  </si>
-  <si>
-    <t>lahoretolagos</t>
-  </si>
-  <si>
-    <t>forecastingfrontiers</t>
-  </si>
-  <si>
-    <t>solversofcanadaseconomiccrisis</t>
-  </si>
-  <si>
-    <t>edgerunner</t>
-  </si>
-  <si>
-    <t>ecomasters</t>
-  </si>
-  <si>
-    <t>themiracleworkers</t>
-  </si>
-  <si>
-    <t>modelmakers</t>
-  </si>
-  <si>
-    <t>theeconbros</t>
-  </si>
-  <si>
-    <t>slackoff</t>
-  </si>
-  <si>
-    <t>carsonboettinger</t>
-  </si>
-  <si>
-    <t>survivingecon</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
-    <t>regressionroyals</t>
-  </si>
-  <si>
-    <t>thedreamteam</t>
-  </si>
-  <si>
-    <t>The Dream Team</t>
-  </si>
-  <si>
-    <t>willgraf</t>
-  </si>
-  <si>
-    <t>Will Graf</t>
-  </si>
-  <si>
-    <t>Data Dazzlers</t>
-  </si>
-  <si>
-    <t>datadazzlers</t>
-  </si>
-  <si>
-    <t>Growth Guardians</t>
-  </si>
-  <si>
-    <t>growthguardians</t>
-  </si>
-  <si>
-    <t>Policy Pioneers</t>
-  </si>
-  <si>
-    <t>policypioneers</t>
-  </si>
-  <si>
-    <t>Economic Explorers</t>
-  </si>
-  <si>
-    <t>economicexplorers</t>
-  </si>
-  <si>
-    <t>Market Movers</t>
-  </si>
-  <si>
-    <t>marketmovers</t>
-  </si>
-  <si>
-    <t>Financial Wizard</t>
-  </si>
-  <si>
-    <t>financialwizard</t>
-  </si>
-  <si>
-    <t>RegressionRoyals</t>
-  </si>
-  <si>
-    <t>DMS</t>
-  </si>
-  <si>
-    <t>dms</t>
-  </si>
-  <si>
-    <t>Econo Titans</t>
-  </si>
-  <si>
-    <t>econotitans</t>
-  </si>
-  <si>
-    <t>Economic Visionaries</t>
-  </si>
-  <si>
-    <t>economicvisionaries</t>
-  </si>
-  <si>
-    <t>thedeadweightlosses</t>
-  </si>
-  <si>
-    <t>The Deadweight Losses</t>
-  </si>
-  <si>
-    <t>correlationcrusaders</t>
-  </si>
-  <si>
-    <t>Correlation Crusaders</t>
-  </si>
-  <si>
-    <t>Marginal Masters</t>
-  </si>
-  <si>
-    <t>marginalmasters</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>Dream</t>
-  </si>
-  <si>
-    <t>dream</t>
-  </si>
-  <si>
-    <t>The Supply Side Squad</t>
-  </si>
-  <si>
-    <t>thesupplysidesquad</t>
-  </si>
-  <si>
-    <t>LXR</t>
-  </si>
-  <si>
-    <t>lxr</t>
-  </si>
-  <si>
-    <t>Stata Stallions</t>
-  </si>
-  <si>
-    <t>statastallions</t>
-  </si>
-  <si>
-    <t>Capital Crusaders</t>
-  </si>
-  <si>
-    <t>capitalcrusaders</t>
-  </si>
-  <si>
-    <t>Demand Dynasty</t>
-  </si>
-  <si>
-    <t>demanddynasty</t>
-  </si>
-  <si>
-    <t>teamboh</t>
-  </si>
-  <si>
-    <t>Team Boh</t>
+    <t>confidenceintervals</t>
+  </si>
+  <si>
+    <t>paretooptimalists</t>
+  </si>
+  <si>
+    <t>goodlogic</t>
+  </si>
+  <si>
+    <t>supplyanddemanders</t>
+  </si>
+  <si>
+    <t>theexcelerator</t>
+  </si>
+  <si>
+    <t>keynescrusaders</t>
+  </si>
+  <si>
+    <t>utilitymaximizers</t>
+  </si>
+  <si>
+    <t>economads</t>
+  </si>
+  <si>
+    <t>theequilibriumenforcers</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>fiscalfalcons</t>
+  </si>
+  <si>
+    <t>theinvisiblehands</t>
+  </si>
+  <si>
+    <t>therejectednulls</t>
+  </si>
+  <si>
+    <t>thedatahunters</t>
+  </si>
+  <si>
+    <t>thetarrifc25</t>
+  </si>
+  <si>
+    <t>wageagainstthemachine</t>
+  </si>
+  <si>
+    <t>thewagewizards</t>
+  </si>
+  <si>
+    <t>scarcitysquad</t>
+  </si>
+  <si>
+    <t>tradeofftitans</t>
+  </si>
+  <si>
+    <t>marginalrevolutionaries</t>
+  </si>
+  <si>
+    <t>paretoimprovements</t>
+  </si>
+  <si>
+    <t>recessionobsession</t>
+  </si>
+  <si>
+    <t>Confidence Intervals</t>
+  </si>
+  <si>
+    <t>Pareto Optimalists</t>
+  </si>
+  <si>
+    <t>GoodLogic</t>
+  </si>
+  <si>
+    <t>Supply and Demanders</t>
+  </si>
+  <si>
+    <t>The Excel-erator</t>
+  </si>
+  <si>
+    <t>Keynes Crusaders</t>
+  </si>
+  <si>
+    <t>Utility Maximizers</t>
+  </si>
+  <si>
+    <t>Economads</t>
+  </si>
+  <si>
+    <t>The Equilibrium Enforcers</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>Fiscal Falcons</t>
+  </si>
+  <si>
+    <t>The Invisible Hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Rejected Nulls </t>
+  </si>
+  <si>
+    <t>The Data Hunters</t>
+  </si>
+  <si>
+    <t>The Tarrifc 25%</t>
+  </si>
+  <si>
+    <t>Wage Against The Machine</t>
+  </si>
+  <si>
+    <t>The Wage Wizards</t>
+  </si>
+  <si>
+    <t>Scarcity Squad</t>
+  </si>
+  <si>
+    <t>Tradeoff Titans</t>
+  </si>
+  <si>
+    <t>Marginal Revolutionaries</t>
+  </si>
+  <si>
+    <t>Pareto Improvements</t>
+  </si>
+  <si>
+    <t>Recession Obsession</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,32 +1015,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1129,10 +1048,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1140,21 +1059,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1162,32 +1081,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1195,10 +1114,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1206,43 +1125,43 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1250,10 +1169,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1261,10 +1180,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1272,221 +1191,78 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36">
+      <c r="C23">
         <v>2</v>
       </c>
     </row>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F0F7E5F-EF90-DB4D-BC37-F53E1BBE835A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F2BDC28-8DCD-5C4F-8C13-6ED748D62E0B}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="4080" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>The Data Hunters</t>
   </si>
   <si>
-    <t>The Tarrifc 25%</t>
-  </si>
-  <si>
     <t>Wage Against The Machine</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Recession Obsession</t>
+  </si>
+  <si>
+    <t>The Tarrifc 25</t>
   </si>
 </sst>
 </file>
@@ -702,6 +702,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1004,7 +1008,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,7 +1187,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1194,7 +1198,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1205,7 +1209,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1216,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1227,7 +1231,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1238,7 +1242,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1249,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1260,7 +1264,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23">
         <v>2</v>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F2BDC28-8DCD-5C4F-8C13-6ED748D62E0B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{449F510D-B63B-C04E-B0EB-7D45EC603606}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="4080" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>Supply and Demanders</t>
   </si>
   <si>
-    <t>The Excel-erator</t>
-  </si>
-  <si>
     <t>Keynes Crusaders</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>The Tarrifc 25</t>
+  </si>
+  <si>
+    <t>The Excelerator</t>
   </si>
 </sst>
 </file>
@@ -644,8 +644,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1008,12 +1009,12 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1035,7 +1036,7 @@
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1046,7 +1047,7 @@
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1057,7 +1058,7 @@
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1068,7 +1069,7 @@
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1077,9 +1078,9 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1088,9 +1089,9 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1099,9 +1100,9 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1110,9 +1111,9 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1121,9 +1122,9 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1132,9 +1133,9 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1143,9 +1144,9 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1154,9 +1155,9 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1165,9 +1166,9 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1176,9 +1177,9 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1187,9 +1188,9 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1198,9 +1199,9 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1209,9 +1210,9 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1220,9 +1221,9 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1231,9 +1232,9 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1242,9 +1243,9 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1253,9 +1254,9 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1264,9 +1265,9 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1">
         <v>2</v>
       </c>
     </row>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{449F510D-B63B-C04E-B0EB-7D45EC603606}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C5106C-1530-BD4C-A4DA-9C033E54BB69}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="4080" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>longname</t>
   </si>
@@ -43,9 +43,6 @@
     <t>supplyanddemanders</t>
   </si>
   <si>
-    <t>theexcelerator</t>
-  </si>
-  <si>
     <t>keynescrusaders</t>
   </si>
   <si>
@@ -157,10 +154,19 @@
     <t>Recession Obsession</t>
   </si>
   <si>
-    <t>The Tarrifc 25</t>
-  </si>
-  <si>
-    <t>The Excelerator</t>
+    <t>thedeadweightlosses</t>
+  </si>
+  <si>
+    <t>The Deadweight Losses</t>
+  </si>
+  <si>
+    <t>The Tarrifc 25%</t>
+  </si>
+  <si>
+    <t>The Excel-erator</t>
+  </si>
+  <si>
+    <t>theexcel-erator</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1045,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -1056,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -1067,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1075,10 +1081,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1086,10 +1092,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1097,10 +1103,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1108,10 +1114,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -1119,10 +1125,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1130,10 +1136,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -1141,10 +1147,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -1152,10 +1158,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1163,10 +1169,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1174,10 +1180,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -1185,10 +1191,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1196,10 +1202,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -1207,10 +1213,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -1218,10 +1224,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1229,10 +1235,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1240,10 +1246,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -1251,10 +1257,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -1262,13 +1268,24 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C5106C-1530-BD4C-A4DA-9C033E54BB69}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0C9642A-3DC3-464D-9271-50D4094A0B60}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="4080" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20180" yWindow="4080" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics Competition 2023_Octo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>longname</t>
   </si>
@@ -31,142 +31,10 @@
     <t>year</t>
   </si>
   <si>
-    <t>confidenceintervals</t>
-  </si>
-  <si>
-    <t>paretooptimalists</t>
-  </si>
-  <si>
-    <t>goodlogic</t>
-  </si>
-  <si>
-    <t>supplyanddemanders</t>
-  </si>
-  <si>
-    <t>keynescrusaders</t>
-  </si>
-  <si>
-    <t>utilitymaximizers</t>
-  </si>
-  <si>
-    <t>economads</t>
-  </si>
-  <si>
-    <t>theequilibriumenforcers</t>
-  </si>
-  <si>
-    <t>prime</t>
-  </si>
-  <si>
-    <t>fiscalfalcons</t>
-  </si>
-  <si>
-    <t>theinvisiblehands</t>
-  </si>
-  <si>
-    <t>therejectednulls</t>
-  </si>
-  <si>
-    <t>thedatahunters</t>
-  </si>
-  <si>
-    <t>thetarrifc25</t>
-  </si>
-  <si>
-    <t>wageagainstthemachine</t>
-  </si>
-  <si>
-    <t>thewagewizards</t>
-  </si>
-  <si>
-    <t>scarcitysquad</t>
-  </si>
-  <si>
-    <t>tradeofftitans</t>
-  </si>
-  <si>
-    <t>marginalrevolutionaries</t>
-  </si>
-  <si>
-    <t>paretoimprovements</t>
-  </si>
-  <si>
-    <t>recessionobsession</t>
-  </si>
-  <si>
-    <t>Confidence Intervals</t>
-  </si>
-  <si>
-    <t>Pareto Optimalists</t>
-  </si>
-  <si>
-    <t>GoodLogic</t>
-  </si>
-  <si>
-    <t>Supply and Demanders</t>
-  </si>
-  <si>
-    <t>Keynes Crusaders</t>
-  </si>
-  <si>
-    <t>Utility Maximizers</t>
-  </si>
-  <si>
-    <t>Economads</t>
-  </si>
-  <si>
-    <t>The Equilibrium Enforcers</t>
-  </si>
-  <si>
-    <t>Prime</t>
-  </si>
-  <si>
-    <t>Fiscal Falcons</t>
-  </si>
-  <si>
-    <t>The Invisible Hands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Rejected Nulls </t>
-  </si>
-  <si>
-    <t>The Data Hunters</t>
-  </si>
-  <si>
-    <t>Wage Against The Machine</t>
-  </si>
-  <si>
-    <t>The Wage Wizards</t>
-  </si>
-  <si>
-    <t>Scarcity Squad</t>
-  </si>
-  <si>
-    <t>Tradeoff Titans</t>
-  </si>
-  <si>
-    <t>Marginal Revolutionaries</t>
-  </si>
-  <si>
-    <t>Pareto Improvements</t>
-  </si>
-  <si>
-    <t>Recession Obsession</t>
-  </si>
-  <si>
     <t>thedeadweightlosses</t>
   </si>
   <si>
     <t>The Deadweight Losses</t>
-  </si>
-  <si>
-    <t>The Tarrifc 25%</t>
-  </si>
-  <si>
-    <t>The Excel-erator</t>
-  </si>
-  <si>
-    <t>theexcel-erator</t>
   </si>
 </sst>
 </file>
@@ -709,10 +577,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1012,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,251 +904,9 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1">
         <v>3</v>
       </c>
     </row>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0C9642A-3DC3-464D-9271-50D4094A0B60}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AC75D80-1322-7749-9AD7-184BBD7D914C}"/>
   <bookViews>
-    <workbookView xWindow="20180" yWindow="4080" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57540" yWindow="3800" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics Competition 2023_Octo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>longname</t>
   </si>
@@ -35,6 +35,147 @@
   </si>
   <si>
     <t>The Deadweight Losses</t>
+  </si>
+  <si>
+    <t>confidenceintervalkings</t>
+  </si>
+  <si>
+    <t>icetimeoptimizers</t>
+  </si>
+  <si>
+    <t>opportunitycostlyturnovers</t>
+  </si>
+  <si>
+    <t>goldenanalysts</t>
+  </si>
+  <si>
+    <t>olsonice</t>
+  </si>
+  <si>
+    <t>endogenousenforcers</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>corsicrusaders</t>
+  </si>
+  <si>
+    <t>utilitymaximizers</t>
+  </si>
+  <si>
+    <t>thedatadivas</t>
+  </si>
+  <si>
+    <t>iceindex</t>
+  </si>
+  <si>
+    <t>skatetothemean</t>
+  </si>
+  <si>
+    <t>thethreemusketeers</t>
+  </si>
+  <si>
+    <t>marginalrevolutionaries</t>
+  </si>
+  <si>
+    <t>teamof1</t>
+  </si>
+  <si>
+    <t>timothyandmok</t>
+  </si>
+  <si>
+    <t>metricboomin</t>
+  </si>
+  <si>
+    <t>theinvisiblehands</t>
+  </si>
+  <si>
+    <t>birdies</t>
+  </si>
+  <si>
+    <t>recessionobsession</t>
+  </si>
+  <si>
+    <t>bayesianbruins</t>
+  </si>
+  <si>
+    <t>whatcouldpossiblygowrong</t>
+  </si>
+  <si>
+    <t>netelasticity</t>
+  </si>
+  <si>
+    <t>Confidence Interval Kings</t>
+  </si>
+  <si>
+    <t>Ice Time Optimizers</t>
+  </si>
+  <si>
+    <t>Opportunity Costly Turnovers</t>
+  </si>
+  <si>
+    <t>Golden Analysts</t>
+  </si>
+  <si>
+    <t>OLS on Ice</t>
+  </si>
+  <si>
+    <t>Endogenous Enforcers</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Corsi Crusaders</t>
+  </si>
+  <si>
+    <t>Utility Maximizers</t>
+  </si>
+  <si>
+    <t>The Data Divas</t>
+  </si>
+  <si>
+    <t>Ice Index</t>
+  </si>
+  <si>
+    <t>Skate to the mean</t>
+  </si>
+  <si>
+    <t>The Three Musketeers</t>
+  </si>
+  <si>
+    <t>Marginal Revolutionaries</t>
+  </si>
+  <si>
+    <t>Team of 1</t>
+  </si>
+  <si>
+    <t>Timothy and Mok</t>
+  </si>
+  <si>
+    <t>MetricBoomin</t>
+  </si>
+  <si>
+    <t>The Invisible Hands</t>
+  </si>
+  <si>
+    <t>Birdies</t>
+  </si>
+  <si>
+    <t>Recession Obsession</t>
+  </si>
+  <si>
+    <t>Bayesian Bruins</t>
+  </si>
+  <si>
+    <t>What Could Possibly Go Wrong</t>
+  </si>
+  <si>
+    <t>Net Elasticity</t>
+  </si>
+  <si>
+    <t>MABE</t>
   </si>
 </sst>
 </file>
@@ -518,9 +659,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -577,6 +722,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -910,6 +1059,259 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AC75D80-1322-7749-9AD7-184BBD7D914C}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEB9D796-B46E-E046-907B-586C6D6E802A}"/>
   <bookViews>
     <workbookView xWindow="57540" yWindow="3800" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>longname</t>
   </si>
@@ -58,9 +58,6 @@
     <t>orange</t>
   </si>
   <si>
-    <t>corsicrusaders</t>
-  </si>
-  <si>
     <t>utilitymaximizers</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
   </si>
   <si>
     <t>Orange</t>
-  </si>
-  <si>
-    <t>Corsi Crusaders</t>
   </si>
   <si>
     <t>Utility Maximizers</t>
@@ -1028,7 +1022,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1075,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1086,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1097,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1108,7 +1102,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1119,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1130,18 +1124,18 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1149,10 +1143,10 @@
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1160,10 +1154,10 @@
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1171,21 +1165,21 @@
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1193,10 +1187,10 @@
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1204,10 +1198,10 @@
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1215,10 +1209,10 @@
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1226,10 +1220,10 @@
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1237,10 +1231,10 @@
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1248,10 +1242,10 @@
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1259,10 +1253,10 @@
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1270,10 +1264,10 @@
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1281,10 +1275,10 @@
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1292,10 +1286,10 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1303,13 +1297,13 @@
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEB9D796-B46E-E046-907B-586C6D6E802A}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E67C9B0-5787-7F4B-86CB-5763CE254BE7}"/>
   <bookViews>
     <workbookView xWindow="57540" yWindow="3800" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>longname</t>
   </si>
@@ -1019,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,21 +1132,21 @@
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1154,65 +1154,65 @@
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1242,32 +1242,32 @@
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1286,23 +1286,12 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C24" t="s">
         <v>49</v>
       </c>
     </row>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/jusmith_wlu_ca/Documents/Administrative/UG Chair/econcomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E67C9B0-5787-7F4B-86CB-5763CE254BE7}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{333B3B2D-F731-F049-BCC3-8B7D1564B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50D297B9-8D5B-8B40-9CB3-6CFD4918CB17}"/>
   <bookViews>
     <workbookView xWindow="57540" yWindow="3800" windowWidth="31020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>longname</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>MABE</t>
+  </si>
+  <si>
+    <t>forecasters</t>
+  </si>
+  <si>
+    <t>Forecasters</t>
   </si>
 </sst>
 </file>
@@ -716,10 +722,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,6 +1297,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
